--- a/MSc Articles.xlsx
+++ b/MSc Articles.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SyR-e" sheetId="1" r:id="rId1"/>
+    <sheet name="SRM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Number</t>
   </si>
@@ -71,6 +72,57 @@
   </si>
   <si>
     <t>The Articles, related to SyR-e</t>
+  </si>
+  <si>
+    <t>ROTOR DESIGN AND OPTIMIZATION OF SYNCHRONOUS RELUCTANCE MACHINE</t>
+  </si>
+  <si>
+    <t>March, 2015</t>
+  </si>
+  <si>
+    <t>A Compensated Vector Control Scheme of a Synchronous Reluctance Motor Including Saturation and Iron Losses</t>
+  </si>
+  <si>
+    <t>December, 1992</t>
+  </si>
+  <si>
+    <t>Analysis and performance of high efficiency synchronous reluctance machines</t>
+  </si>
+  <si>
+    <t>Synchronous Reluctance Machines- A Viable Alternative for AC Drives?</t>
+  </si>
+  <si>
+    <t>May, 1991</t>
+  </si>
+  <si>
+    <t>Rotor Design Optimization of Synchronous Reluctance Machine</t>
+  </si>
+  <si>
+    <t>June, 1994</t>
+  </si>
+  <si>
+    <t>SENKRON RELÜKTANS MAKİNASININ ANALİZİ</t>
+  </si>
+  <si>
+    <t>Reluctance Synchronous Machine Drives – a Viable Alternative ?</t>
+  </si>
+  <si>
+    <t>4 – 5 July 2013</t>
+  </si>
+  <si>
+    <t>High-Speed Synchronous Reluctance Machine with Minimized Rotor Losses</t>
+  </si>
+  <si>
+    <t>April, 2000</t>
+  </si>
+  <si>
+    <t>DESIGN OPTIMIZATION OF TWO SYNCHRONOUS RELUCTANCE MACHINE STRUCTURES WITH MAXIMIZED TORQUE AND POWER FACTOR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>The Articles, related to Synchronous Reluctance Machines</t>
   </si>
 </sst>
 </file>
@@ -78,9 +130,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +199,13 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -173,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,12 +255,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,7 +289,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -230,23 +298,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -569,22 +661,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -598,7 +690,7 @@
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -612,7 +704,7 @@
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -626,7 +718,7 @@
       <c r="C5" s="5">
         <v>2013</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -640,7 +732,7 @@
       <c r="C6" s="5">
         <v>2014</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -654,7 +746,7 @@
       <c r="C7" s="5">
         <v>2014</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -668,7 +760,7 @@
       <c r="C8" s="5">
         <v>2014</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -682,7 +774,7 @@
       <c r="C9" s="5">
         <v>2014</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -696,7 +788,7 @@
       <c r="C10" s="5">
         <v>2014</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -710,7 +802,7 @@
       <c r="C11" s="5">
         <v>2010</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -724,7 +816,7 @@
       <c r="C12" s="5">
         <v>2010</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -747,4 +839,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="25" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2011</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2011</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>